--- a/biology/Médecine/Sinus_(anatomie)/Sinus_(anatomie).xlsx
+++ b/biology/Médecine/Sinus_(anatomie)/Sinus_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sinus est une poche ou une cavité dans un organe ou un tissu, ou une cavité anormale ayant pour origine une destruction tissulaire. Habituellement, les « sinus » désignent les sinus paranasaux qui sont des cavités aériennes dans les os crâniens, près des fosses nasales et reliées à elles. Le plus souvent, on parle de sinus plutôt pour des cavités irrégulières, ou dont on ne trouve pas d'adjectif pouvant caractériser la cavité.
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme est aussi employé pour désigner d'autres structures chez les animaux, telles que :
 Une portion dilatée d'un vaisseau sanguin comme dans la boîte crânienne, ou par exemple la bifurcation des artères carotides au niveau du cou ;
@@ -548,7 +562,9 @@
           <t>Pathologies liées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sinusite
 Polypose nasosinusienne
